--- a/storage/excel/20160121125230.xlsx
+++ b/storage/excel/20160121125230.xlsx
@@ -29,13 +29,13 @@
     <t>method</t>
   </si>
   <si>
-    <t>smobile</t>
-  </si>
-  <si>
     <t>spassword</t>
   </si>
   <si>
     <t>surl</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,14 +385,13 @@
   <cols>
     <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="5.855713" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +410,24 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
